--- a/Sistemas Informaticos/Tema 3/Práctica 3.5 - Memoria Virtual 2.xlsx
+++ b/Sistemas Informaticos/Tema 3/Práctica 3.5 - Memoria Virtual 2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carmorama\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carmorama\Desktop\Repos\Sistemas Informaticos\Tema 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73657CC-36C4-49DD-88E1-596AA0FFD0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06D01D3-FE82-41D0-869A-3A3168BC7142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="64">
   <si>
     <t>EJERCICIO 1</t>
   </si>
@@ -92,42 +92,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>1-2</t>
-  </si>
-  <si>
-    <t>1-2-3</t>
-  </si>
-  <si>
-    <t>1-2-3-4</t>
-  </si>
-  <si>
-    <t>2-3-4-5</t>
-  </si>
-  <si>
-    <t>3-4-5-3</t>
-  </si>
-  <si>
-    <t>4-5-3-1</t>
-  </si>
-  <si>
-    <t>5-3-1-2</t>
-  </si>
-  <si>
-    <t>3-1-2-3</t>
-  </si>
-  <si>
-    <t>3-4-5-6</t>
-  </si>
-  <si>
-    <t>4-5-6-1</t>
-  </si>
-  <si>
-    <t>5-6-1-2</t>
-  </si>
-  <si>
-    <t>6-1-2-3</t>
-  </si>
-  <si>
     <t>6-4</t>
   </si>
   <si>
@@ -137,40 +101,130 @@
     <t>6-4-8-3</t>
   </si>
   <si>
-    <t>4-8-3-6</t>
-  </si>
-  <si>
-    <t>8-3-6-5</t>
-  </si>
-  <si>
-    <t>3-6-5-3</t>
-  </si>
-  <si>
-    <t>6-5-3-2</t>
-  </si>
-  <si>
-    <t>5-3-2-1</t>
-  </si>
-  <si>
     <t>3-2-1-8</t>
   </si>
   <si>
-    <t>2-1-8-5</t>
-  </si>
-  <si>
-    <t>1-8-5-3</t>
-  </si>
-  <si>
-    <t>8-5-3-6</t>
-  </si>
-  <si>
-    <t>5-3-6-1</t>
-  </si>
-  <si>
-    <t>3-6-1-2</t>
-  </si>
-  <si>
-    <t>6-1-2-7</t>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>3-2-1</t>
+  </si>
+  <si>
+    <t>4-3-2-1</t>
+  </si>
+  <si>
+    <t>5-4-3-2</t>
+  </si>
+  <si>
+    <t>6-5-4-3</t>
+  </si>
+  <si>
+    <t>1-6-5-4</t>
+  </si>
+  <si>
+    <t>2-1-6-5</t>
+  </si>
+  <si>
+    <t>3-2-1-6</t>
+  </si>
+  <si>
+    <t>4-6</t>
+  </si>
+  <si>
+    <t>8-4-6</t>
+  </si>
+  <si>
+    <t>3-8-4-6</t>
+  </si>
+  <si>
+    <t>6-3-8-4</t>
+  </si>
+  <si>
+    <t>5-4-8-3</t>
+  </si>
+  <si>
+    <t>5-3-8-4</t>
+  </si>
+  <si>
+    <t>3-5-8-4</t>
+  </si>
+  <si>
+    <t>2-5-8-4</t>
+  </si>
+  <si>
+    <t>1-5-8-4</t>
+  </si>
+  <si>
+    <t>8-1-5-4</t>
+  </si>
+  <si>
+    <t>5-8-1-4</t>
+  </si>
+  <si>
+    <t>3-8-1-4</t>
+  </si>
+  <si>
+    <t>6-8-1-4</t>
+  </si>
+  <si>
+    <t>1-6-8-4</t>
+  </si>
+  <si>
+    <t>2-6-8-4</t>
+  </si>
+  <si>
+    <t>7-6-8-4</t>
+  </si>
+  <si>
+    <t>Ratio =</t>
+  </si>
+  <si>
+    <t>6-5-8-3</t>
+  </si>
+  <si>
+    <t>6-5-2-3</t>
+  </si>
+  <si>
+    <t>1-5-2-3</t>
+  </si>
+  <si>
+    <t>1-8-2-3</t>
+  </si>
+  <si>
+    <t>1-8-2-5</t>
+  </si>
+  <si>
+    <t>1-8-3-5</t>
+  </si>
+  <si>
+    <t>6-8-3-5</t>
+  </si>
+  <si>
+    <t>6-1-3-5</t>
+  </si>
+  <si>
+    <t>6-1-3-2</t>
+  </si>
+  <si>
+    <t>6-1-7-2</t>
+  </si>
+  <si>
+    <t>5-2-8-3</t>
+  </si>
+  <si>
+    <t>5-2-1-3</t>
+  </si>
+  <si>
+    <t>5-2-1-8</t>
+  </si>
+  <si>
+    <t>3-6-1-8</t>
+  </si>
+  <si>
+    <t>3-6-2-8</t>
+  </si>
+  <si>
+    <t>3-6-2-7</t>
   </si>
 </sst>
 </file>
@@ -285,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -317,8 +371,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -345,6 +397,14 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -566,8 +626,8 @@
   </sheetPr>
   <dimension ref="B2:I129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="G109" sqref="G109"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I128" sqref="I128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -582,15 +642,15 @@
       </c>
     </row>
     <row r="4" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
     </row>
     <row r="5" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
     </row>
     <row r="9" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
@@ -639,9 +699,7 @@
       <c r="H11" s="2">
         <v>1</v>
       </c>
-      <c r="I11" s="2">
-        <v>1</v>
-      </c>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
@@ -657,9 +715,7 @@
       <c r="H12" s="2">
         <v>2</v>
       </c>
-      <c r="I12" s="2">
-        <v>1</v>
-      </c>
+      <c r="I12" s="2"/>
     </row>
     <row r="13" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
@@ -675,9 +731,7 @@
       <c r="H13" s="2">
         <v>3</v>
       </c>
-      <c r="I13" s="2">
-        <v>1</v>
-      </c>
+      <c r="I13" s="2"/>
     </row>
     <row r="14" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
@@ -697,9 +751,7 @@
       <c r="H14" s="2">
         <v>4</v>
       </c>
-      <c r="I14" s="10" t="s">
-        <v>19</v>
-      </c>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B15" s="2">
@@ -721,9 +773,7 @@
       <c r="H15" s="2">
         <v>5</v>
       </c>
-      <c r="I15" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="I15" s="11"/>
     </row>
     <row r="16" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
@@ -747,9 +797,7 @@
       <c r="H16" s="2">
         <v>6</v>
       </c>
-      <c r="I16" s="11" t="s">
-        <v>21</v>
-      </c>
+      <c r="I16" s="11"/>
     </row>
     <row r="17" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
@@ -773,9 +821,7 @@
       <c r="H17" s="2">
         <v>7</v>
       </c>
-      <c r="I17" s="12" t="s">
-        <v>22</v>
-      </c>
+      <c r="I17" s="12"/>
     </row>
     <row r="18" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
@@ -797,9 +843,7 @@
       <c r="H18" s="2">
         <v>8</v>
       </c>
-      <c r="I18" s="12" t="s">
-        <v>23</v>
-      </c>
+      <c r="I18" s="12"/>
     </row>
     <row r="19" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
@@ -823,9 +867,7 @@
       <c r="H19" s="2">
         <v>9</v>
       </c>
-      <c r="I19" s="12" t="s">
-        <v>24</v>
-      </c>
+      <c r="I19" s="12"/>
     </row>
     <row r="20" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
@@ -847,9 +889,7 @@
       <c r="H20" s="2">
         <v>10</v>
       </c>
-      <c r="I20" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="I20" s="4"/>
     </row>
     <row r="21" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
@@ -871,9 +911,7 @@
       <c r="H21" s="2">
         <v>11</v>
       </c>
-      <c r="I21" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="I21" s="4"/>
     </row>
     <row r="22" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
@@ -895,9 +933,7 @@
       <c r="H22" s="2">
         <v>12</v>
       </c>
-      <c r="I22" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="I22" s="4"/>
     </row>
     <row r="24" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
@@ -906,6 +942,13 @@
       <c r="C24" s="5">
         <f>COUNTA(G11:G22)</f>
         <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="25">
+        <f>C24/H22</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -955,9 +998,7 @@
       <c r="H29" s="6">
         <v>1</v>
       </c>
-      <c r="I29" s="2">
-        <v>1</v>
-      </c>
+      <c r="I29" s="2"/>
     </row>
     <row r="30" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B30" s="6">
@@ -973,9 +1014,7 @@
       <c r="H30" s="6">
         <v>2</v>
       </c>
-      <c r="I30" s="2">
-        <v>1</v>
-      </c>
+      <c r="I30" s="2"/>
     </row>
     <row r="31" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B31" s="6">
@@ -991,9 +1030,7 @@
       <c r="H31" s="6">
         <v>3</v>
       </c>
-      <c r="I31" s="2">
-        <v>1</v>
-      </c>
+      <c r="I31" s="2"/>
     </row>
     <row r="32" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B32" s="6">
@@ -1013,9 +1050,7 @@
       <c r="H32" s="6">
         <v>4</v>
       </c>
-      <c r="I32" s="10" t="s">
-        <v>19</v>
-      </c>
+      <c r="I32" s="10"/>
     </row>
     <row r="33" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="6">
@@ -1037,9 +1072,7 @@
       <c r="H33" s="6">
         <v>5</v>
       </c>
-      <c r="I33" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="I33" s="11"/>
     </row>
     <row r="34" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B34" s="6">
@@ -1063,9 +1096,7 @@
       <c r="H34" s="6">
         <v>6</v>
       </c>
-      <c r="I34" s="11" t="s">
-        <v>21</v>
-      </c>
+      <c r="I34" s="11"/>
     </row>
     <row r="35" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B35" s="6">
@@ -1089,9 +1120,7 @@
       <c r="H35" s="6">
         <v>7</v>
       </c>
-      <c r="I35" s="12" t="s">
-        <v>22</v>
-      </c>
+      <c r="I35" s="12"/>
     </row>
     <row r="36" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B36" s="6">
@@ -1113,9 +1142,7 @@
       <c r="H36" s="6">
         <v>8</v>
       </c>
-      <c r="I36" s="12" t="s">
-        <v>23</v>
-      </c>
+      <c r="I36" s="12"/>
     </row>
     <row r="37" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B37" s="6">
@@ -1139,9 +1166,7 @@
       <c r="H37" s="6">
         <v>9</v>
       </c>
-      <c r="I37" s="12" t="s">
-        <v>24</v>
-      </c>
+      <c r="I37" s="12"/>
     </row>
     <row r="38" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B38" s="6">
@@ -1163,9 +1188,7 @@
       <c r="H38" s="6">
         <v>10</v>
       </c>
-      <c r="I38" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="I38" s="4"/>
     </row>
     <row r="39" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B39" s="6">
@@ -1187,9 +1210,7 @@
       <c r="H39" s="6">
         <v>11</v>
       </c>
-      <c r="I39" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="I39" s="4"/>
     </row>
     <row r="40" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B40" s="6">
@@ -1211,9 +1232,7 @@
       <c r="H40" s="6">
         <v>12</v>
       </c>
-      <c r="I40" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="I40" s="4"/>
     </row>
     <row r="42" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B42" s="7" t="s">
@@ -1223,6 +1242,13 @@
         <f>COUNTA(G29:G40)</f>
         <v>6</v>
       </c>
+      <c r="E42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" s="25">
+        <f>C42/H40</f>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="44" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
@@ -1259,15 +1285,11 @@
       <c r="B46" s="6">
         <v>1</v>
       </c>
-      <c r="C46" s="3">
-        <v>1</v>
-      </c>
+      <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
-      <c r="G46" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="G46" s="3"/>
       <c r="H46" s="6">
         <v>1</v>
       </c>
@@ -1279,119 +1301,75 @@
       <c r="B47" s="6">
         <v>2</v>
       </c>
-      <c r="C47" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" s="3">
-        <v>2</v>
-      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
-      <c r="G47" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="G47" s="3"/>
       <c r="H47" s="6">
         <v>2</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B48" s="6">
         <v>3</v>
       </c>
-      <c r="C48" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E48" s="3">
-        <v>3</v>
-      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="3"/>
       <c r="F48" s="3"/>
-      <c r="G48" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="G48" s="3"/>
       <c r="H48" s="6">
         <v>3</v>
       </c>
-      <c r="I48" s="15" t="s">
-        <v>20</v>
+      <c r="I48" s="13" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B49" s="6">
         <v>4</v>
       </c>
-      <c r="C49" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F49" s="3">
-        <v>4</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
       <c r="H49" s="6">
         <v>4</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B50" s="6">
         <v>5</v>
       </c>
-      <c r="C50" s="9">
-        <v>5</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="3"/>
       <c r="H50" s="6">
         <v>5</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B51" s="6">
         <v>6</v>
       </c>
-      <c r="C51" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51" s="9">
-        <v>6</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="3"/>
       <c r="H51" s="6">
         <v>6</v>
       </c>
@@ -1403,21 +1381,11 @@
       <c r="B52" s="6">
         <v>1</v>
       </c>
-      <c r="C52" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E52" s="9">
-        <v>1</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="3"/>
       <c r="H52" s="6">
         <v>7</v>
       </c>
@@ -1429,21 +1397,11 @@
       <c r="B53" s="6">
         <v>2</v>
       </c>
-      <c r="C53" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F53" s="9">
-        <v>2</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="3"/>
       <c r="H53" s="6">
         <v>8</v>
       </c>
@@ -1455,21 +1413,11 @@
       <c r="B54" s="6">
         <v>3</v>
       </c>
-      <c r="C54" s="9">
-        <v>3</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="3"/>
       <c r="H54" s="6">
         <v>9</v>
       </c>
@@ -1481,73 +1429,43 @@
       <c r="B55" s="6">
         <v>4</v>
       </c>
-      <c r="C55" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D55" s="9">
-        <v>4</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="3"/>
       <c r="H55" s="6">
         <v>10</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B56" s="6">
         <v>5</v>
       </c>
-      <c r="C56" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="9">
-        <v>5</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="3"/>
       <c r="H56" s="6">
         <v>11</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B57" s="6">
         <v>6</v>
       </c>
-      <c r="C57" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F57" s="9">
-        <v>6</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="3"/>
       <c r="H57" s="6">
         <v>12</v>
       </c>
@@ -1561,7 +1479,14 @@
       </c>
       <c r="C59" s="5">
         <f>COUNTA(G46:G57)</f>
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>47</v>
+      </c>
+      <c r="F59" s="25">
+        <f>C59/H57</f>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -1644,7 +1569,7 @@
       <c r="H70" s="6">
         <v>2</v>
       </c>
-      <c r="I70" s="20" t="s">
+      <c r="I70" s="18" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1668,7 +1593,7 @@
       <c r="H71" s="6">
         <v>3</v>
       </c>
-      <c r="I71" s="21" t="s">
+      <c r="I71" s="24" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1702,8 +1627,8 @@
       <c r="B73" s="6">
         <v>6</v>
       </c>
-      <c r="C73" s="9" t="s">
-        <v>17</v>
+      <c r="C73" s="9">
+        <v>6</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>17</v>
@@ -1745,7 +1670,7 @@
         <v>6</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -1761,15 +1686,15 @@
       <c r="E75" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F75" s="9" t="s">
-        <v>17</v>
+      <c r="F75" s="9">
+        <v>3</v>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="6">
         <v>7</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -1779,14 +1704,14 @@
       <c r="C76" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D76" s="3">
-        <v>2</v>
+      <c r="D76" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="E76" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F76" s="9" t="s">
-        <v>17</v>
+      <c r="F76" s="9">
+        <v>2</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>18</v>
@@ -1795,7 +1720,7 @@
         <v>8</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -1808,11 +1733,11 @@
       <c r="D77" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E77" s="3">
-        <v>1</v>
-      </c>
-      <c r="F77" s="9" t="s">
-        <v>17</v>
+      <c r="E77" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F77" s="9">
+        <v>1</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>18</v>
@@ -1821,7 +1746,7 @@
         <v>9</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="78" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -1834,28 +1759,26 @@
       <c r="D78" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E78" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F78" s="3">
+      <c r="E78" s="9">
         <v>8</v>
       </c>
-      <c r="G78" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="F78" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G78" s="3"/>
       <c r="H78" s="6">
         <v>10</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B79" s="6">
         <v>5</v>
       </c>
-      <c r="C79" s="9" t="s">
-        <v>17</v>
+      <c r="C79" s="9">
+        <v>5</v>
       </c>
       <c r="D79" s="9" t="s">
         <v>17</v>
@@ -1871,14 +1794,14 @@
         <v>11</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="80" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B80" s="16">
-        <v>3</v>
-      </c>
-      <c r="C80" s="17">
+      <c r="B80" s="14">
+        <v>3</v>
+      </c>
+      <c r="C80" s="15">
         <v>3</v>
       </c>
       <c r="D80" s="9" t="s">
@@ -1890,25 +1813,25 @@
       <c r="F80" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G80" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H80" s="16">
+      <c r="G80" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H80" s="14">
         <v>12</v>
       </c>
-      <c r="I80" s="16" t="s">
-        <v>41</v>
+      <c r="I80" s="14" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="81" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B81" s="18">
-        <v>6</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D81" s="19">
-        <v>6</v>
+      <c r="B81" s="16">
+        <v>6</v>
+      </c>
+      <c r="C81" s="9">
+        <v>6</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="E81" s="9" t="s">
         <v>17</v>
@@ -1916,18 +1839,18 @@
       <c r="F81" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G81" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H81" s="18">
+      <c r="G81" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H81" s="16">
         <v>13</v>
       </c>
-      <c r="I81" s="18" t="s">
-        <v>42</v>
+      <c r="I81" s="16" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="82" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B82" s="18">
+      <c r="B82" s="16">
         <v>1</v>
       </c>
       <c r="C82" s="9" t="s">
@@ -1939,19 +1862,19 @@
       <c r="E82" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F82" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G82" s="19"/>
-      <c r="H82" s="18">
+      <c r="F82" s="9">
+        <v>1</v>
+      </c>
+      <c r="G82" s="17"/>
+      <c r="H82" s="16">
         <v>14</v>
       </c>
-      <c r="I82" s="18" t="s">
-        <v>43</v>
+      <c r="I82" s="16" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="83" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B83" s="18">
+      <c r="B83" s="16">
         <v>2</v>
       </c>
       <c r="C83" s="9" t="s">
@@ -1960,24 +1883,24 @@
       <c r="D83" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E83" s="19">
-        <v>2</v>
-      </c>
-      <c r="F83" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G83" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H83" s="18">
+      <c r="E83" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F83" s="9">
+        <v>2</v>
+      </c>
+      <c r="G83" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H83" s="16">
         <v>15</v>
       </c>
-      <c r="I83" s="18" t="s">
-        <v>44</v>
+      <c r="I83" s="16" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="84" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B84" s="18">
+      <c r="B84" s="16">
         <v>7</v>
       </c>
       <c r="C84" s="9" t="s">
@@ -1992,14 +1915,14 @@
       <c r="F84" s="9">
         <v>7</v>
       </c>
-      <c r="G84" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H84" s="18">
+      <c r="G84" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H84" s="16">
         <v>16</v>
       </c>
-      <c r="I84" s="18" t="s">
-        <v>45</v>
+      <c r="I84" s="16" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="86" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -2007,8 +1930,15 @@
         <v>15</v>
       </c>
       <c r="C86" s="5">
-        <f>COUNTA(G73:G84)</f>
-        <v>8</v>
+        <f>COUNTA(G69:G84)</f>
+        <v>11</v>
+      </c>
+      <c r="E86" t="s">
+        <v>47</v>
+      </c>
+      <c r="F86" s="25">
+        <f>C86/H84</f>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="88" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -2080,8 +2010,8 @@
       <c r="H91" s="6">
         <v>2</v>
       </c>
-      <c r="I91" s="20" t="s">
-        <v>31</v>
+      <c r="I91" s="18" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="92" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -2104,8 +2034,8 @@
       <c r="H92" s="6">
         <v>3</v>
       </c>
-      <c r="I92" s="21" t="s">
-        <v>32</v>
+      <c r="I92" s="19" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="93" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -2131,15 +2061,15 @@
         <v>4</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B94" s="6">
         <v>6</v>
       </c>
-      <c r="C94" s="9" t="s">
-        <v>17</v>
+      <c r="C94" s="9">
+        <v>6</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>17</v>
@@ -2155,7 +2085,7 @@
         <v>5</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -2165,14 +2095,14 @@
       <c r="C95" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D95" s="9" t="s">
-        <v>17</v>
+      <c r="D95" s="9">
+        <v>5</v>
       </c>
       <c r="E95" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F95" s="9">
-        <v>5</v>
+      <c r="F95" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="G95" s="3" t="s">
         <v>18</v>
@@ -2181,7 +2111,7 @@
         <v>6</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="96" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -2200,14 +2130,12 @@
       <c r="F96" s="9">
         <v>3</v>
       </c>
-      <c r="G96" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="G96" s="3"/>
       <c r="H96" s="6">
         <v>7</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="97" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -2220,11 +2148,11 @@
       <c r="D97" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E97" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F97" s="9">
-        <v>2</v>
+      <c r="E97" s="9">
+        <v>2</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="G97" s="3" t="s">
         <v>18</v>
@@ -2233,15 +2161,15 @@
         <v>8</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="98" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B98" s="6">
         <v>1</v>
       </c>
-      <c r="C98" s="9" t="s">
-        <v>17</v>
+      <c r="C98" s="9">
+        <v>1</v>
       </c>
       <c r="D98" s="9" t="s">
         <v>17</v>
@@ -2249,8 +2177,8 @@
       <c r="E98" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F98" s="9">
-        <v>1</v>
+      <c r="F98" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>18</v>
@@ -2259,7 +2187,7 @@
         <v>9</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="99" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -2269,8 +2197,8 @@
       <c r="C99" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D99" s="9" t="s">
-        <v>17</v>
+      <c r="D99" s="9">
+        <v>8</v>
       </c>
       <c r="E99" s="9" t="s">
         <v>17</v>
@@ -2278,12 +2206,14 @@
       <c r="F99" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G99" s="3"/>
+      <c r="G99" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="H99" s="6">
         <v>10</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="100" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -2309,43 +2239,43 @@
         <v>11</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="101" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B101" s="16">
-        <v>3</v>
-      </c>
-      <c r="C101" s="22" t="s">
+      <c r="B101" s="14">
+        <v>3</v>
+      </c>
+      <c r="C101" s="20" t="s">
         <v>17</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E101" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F101" s="9">
-        <v>3</v>
-      </c>
-      <c r="G101" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H101" s="16">
+      <c r="E101" s="9">
+        <v>3</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G101" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H101" s="14">
         <v>12</v>
       </c>
-      <c r="I101" s="16" t="s">
-        <v>41</v>
+      <c r="I101" s="14" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="102" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B102" s="18">
-        <v>6</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D102" s="23" t="s">
+      <c r="B102" s="16">
+        <v>6</v>
+      </c>
+      <c r="C102" s="9">
+        <v>6</v>
+      </c>
+      <c r="D102" s="21" t="s">
         <v>17</v>
       </c>
       <c r="E102" s="9" t="s">
@@ -2354,42 +2284,44 @@
       <c r="F102" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G102" s="19"/>
-      <c r="H102" s="18">
+      <c r="G102" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H102" s="16">
         <v>13</v>
       </c>
-      <c r="I102" s="18" t="s">
-        <v>42</v>
+      <c r="I102" s="16" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="103" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B103" s="18">
+      <c r="B103" s="16">
         <v>1</v>
       </c>
       <c r="C103" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D103" s="9" t="s">
-        <v>17</v>
+      <c r="D103" s="9">
+        <v>1</v>
       </c>
       <c r="E103" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F103" s="9">
-        <v>1</v>
-      </c>
-      <c r="G103" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H103" s="18">
+      <c r="F103" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G103" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H103" s="16">
         <v>14</v>
       </c>
-      <c r="I103" s="18" t="s">
-        <v>43</v>
+      <c r="I103" s="16" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="104" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B104" s="18">
+      <c r="B104" s="16">
         <v>2</v>
       </c>
       <c r="C104" s="9" t="s">
@@ -2398,24 +2330,24 @@
       <c r="D104" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E104" s="23" t="s">
+      <c r="E104" s="21" t="s">
         <v>17</v>
       </c>
       <c r="F104" s="9">
         <v>2</v>
       </c>
-      <c r="G104" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H104" s="18">
+      <c r="G104" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H104" s="16">
         <v>15</v>
       </c>
-      <c r="I104" s="18" t="s">
-        <v>44</v>
+      <c r="I104" s="16" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="105" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B105" s="18">
+      <c r="B105" s="16">
         <v>7</v>
       </c>
       <c r="C105" s="9" t="s">
@@ -2424,20 +2356,20 @@
       <c r="D105" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E105" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F105" s="9">
+      <c r="E105" s="9">
         <v>7</v>
       </c>
-      <c r="G105" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H105" s="18">
+      <c r="F105" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G105" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H105" s="16">
         <v>16</v>
       </c>
-      <c r="I105" s="18" t="s">
-        <v>45</v>
+      <c r="I105" s="16" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="107" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -2446,7 +2378,14 @@
       </c>
       <c r="C107" s="5">
         <f>COUNTA(G90:G105)</f>
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="E107" t="s">
+        <v>47</v>
+      </c>
+      <c r="F107" s="25">
+        <f>C107/H105</f>
+        <v>0.875</v>
       </c>
     </row>
     <row r="110" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -2518,8 +2457,8 @@
       <c r="H113" s="6">
         <v>2</v>
       </c>
-      <c r="I113" s="20" t="s">
-        <v>31</v>
+      <c r="I113" s="18" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="114" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -2542,8 +2481,8 @@
       <c r="H114" s="6">
         <v>3</v>
       </c>
-      <c r="I114" s="21" t="s">
-        <v>32</v>
+      <c r="I114" s="19" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="115" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -2568,8 +2507,8 @@
       <c r="H115" s="6">
         <v>4</v>
       </c>
-      <c r="I115" s="6" t="s">
-        <v>33</v>
+      <c r="I115" s="19" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="116" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -2593,7 +2532,7 @@
         <v>5</v>
       </c>
       <c r="I116" s="6" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -2643,7 +2582,7 @@
         <v>7</v>
       </c>
       <c r="I118" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="119" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -2669,7 +2608,7 @@
         <v>8</v>
       </c>
       <c r="I119" s="6" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
     </row>
     <row r="120" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -2695,7 +2634,7 @@
         <v>9</v>
       </c>
       <c r="I120" s="6" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
     </row>
     <row r="121" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -2721,7 +2660,7 @@
         <v>10</v>
       </c>
       <c r="I121" s="6" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
     </row>
     <row r="122" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -2745,14 +2684,14 @@
         <v>11</v>
       </c>
       <c r="I122" s="6" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="123" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B123" s="16">
-        <v>3</v>
-      </c>
-      <c r="C123" s="22">
+      <c r="B123" s="14">
+        <v>3</v>
+      </c>
+      <c r="C123" s="20">
         <v>3</v>
       </c>
       <c r="D123" s="9" t="s">
@@ -2764,24 +2703,24 @@
       <c r="F123" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G123" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H123" s="16">
+      <c r="G123" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H123" s="14">
         <v>12</v>
       </c>
-      <c r="I123" s="16" t="s">
-        <v>41</v>
+      <c r="I123" s="14" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="124" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B124" s="18">
+      <c r="B124" s="16">
         <v>6</v>
       </c>
       <c r="C124" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D124" s="23">
+      <c r="D124" s="21">
         <v>6</v>
       </c>
       <c r="E124" s="9" t="s">
@@ -2790,18 +2729,18 @@
       <c r="F124" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G124" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H124" s="18">
+      <c r="G124" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H124" s="16">
         <v>13</v>
       </c>
-      <c r="I124" s="18" t="s">
-        <v>42</v>
+      <c r="I124" s="16" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="125" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B125" s="18">
+      <c r="B125" s="16">
         <v>1</v>
       </c>
       <c r="C125" s="9" t="s">
@@ -2816,16 +2755,16 @@
       <c r="F125" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G125" s="19"/>
-      <c r="H125" s="18">
+      <c r="G125" s="17"/>
+      <c r="H125" s="16">
         <v>14</v>
       </c>
-      <c r="I125" s="18" t="s">
-        <v>43</v>
+      <c r="I125" s="16" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="126" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B126" s="18">
+      <c r="B126" s="16">
         <v>2</v>
       </c>
       <c r="C126" s="9" t="s">
@@ -2834,24 +2773,24 @@
       <c r="D126" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E126" s="23">
+      <c r="E126" s="21">
         <v>2</v>
       </c>
       <c r="F126" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G126" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H126" s="18">
+      <c r="G126" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H126" s="16">
         <v>15</v>
       </c>
-      <c r="I126" s="18" t="s">
-        <v>44</v>
+      <c r="I126" s="16" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="127" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B127" s="18">
+      <c r="B127" s="16">
         <v>7</v>
       </c>
       <c r="C127" s="9" t="s">
@@ -2866,23 +2805,30 @@
       <c r="F127" s="9">
         <v>7</v>
       </c>
-      <c r="G127" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H127" s="18">
+      <c r="G127" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H127" s="16">
         <v>16</v>
       </c>
-      <c r="I127" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="129" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I127" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B129" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C129" s="5">
         <f>COUNTA(G112:G127)</f>
         <v>12</v>
+      </c>
+      <c r="E129" t="s">
+        <v>47</v>
+      </c>
+      <c r="F129" s="25">
+        <f>C129/H127</f>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
